--- a/po_analysis_by_asin/B0CG2N4N75_po_data.xlsx
+++ b/po_analysis_by_asin/B0CG2N4N75_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,57 +452,105 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45313</v>
+        <v>45172.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45327</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45341</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45348</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>18</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45355</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45362</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B8" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B14" t="n">
         <v>8</v>
       </c>
     </row>
@@ -517,7 +565,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,25 +587,49 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>54</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>69</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45291.99999999999</v>
       </c>
       <c r="B4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B7" t="n">
         <v>12</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0CG2N4N75_po_data.xlsx
+++ b/po_analysis_by_asin/B0CG2N4N75_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,22 +538,6 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>45361.99999999999</v>
-      </c>
-      <c r="B13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>45368.99999999999</v>
-      </c>
-      <c r="B14" t="n">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -565,7 +549,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -625,14 +609,6 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>45382.99999999999</v>
-      </c>
-      <c r="B7" t="n">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/po_analysis_by_asin/B0CG2N4N75_po_data.xlsx
+++ b/po_analysis_by_asin/B0CG2N4N75_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -565,7 +566,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -607,6 +608,313 @@
       </c>
       <c r="B6" t="n">
         <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>30</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-21.17095357737041</v>
+      </c>
+      <c r="D2" t="n">
+        <v>79.24745318814136</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>29</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-20.90458672329303</v>
+      </c>
+      <c r="D3" t="n">
+        <v>79.26038669413713</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>29</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-24.31556407880395</v>
+      </c>
+      <c r="D4" t="n">
+        <v>79.33126907661902</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>29</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-17.92071012004774</v>
+      </c>
+      <c r="D5" t="n">
+        <v>79.42350628152657</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>29</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-22.30695846073821</v>
+      </c>
+      <c r="D6" t="n">
+        <v>80.49275583813905</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>26</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-27.17420085431709</v>
+      </c>
+      <c r="D7" t="n">
+        <v>78.47551924799652</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>25</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-26.93585445475502</v>
+      </c>
+      <c r="D8" t="n">
+        <v>74.32996369780702</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>24</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-24.7101536716342</v>
+      </c>
+      <c r="D9" t="n">
+        <v>72.312709001912</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>24</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-26.12383435927012</v>
+      </c>
+      <c r="D10" t="n">
+        <v>75.14951714304704</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>23</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-26.23397145102194</v>
+      </c>
+      <c r="D11" t="n">
+        <v>73.22837364741417</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>23</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-24.26309504737358</v>
+      </c>
+      <c r="D12" t="n">
+        <v>69.64571894202454</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>23</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-25.61251847829054</v>
+      </c>
+      <c r="D13" t="n">
+        <v>72.04175607367205</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>23</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-25.22775566260771</v>
+      </c>
+      <c r="D14" t="n">
+        <v>75.40603122938431</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>22</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-27.49507327827677</v>
+      </c>
+      <c r="D15" t="n">
+        <v>76.0062358819152</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>22</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-33.51808904153412</v>
+      </c>
+      <c r="D16" t="n">
+        <v>71.7436645890994</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>22</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-25.89715889829548</v>
+      </c>
+      <c r="D17" t="n">
+        <v>72.76894312571103</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>22</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-32.96117064486228</v>
+      </c>
+      <c r="D18" t="n">
+        <v>68.98654070498118</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>21</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-26.95855012402295</v>
+      </c>
+      <c r="D19" t="n">
+        <v>75.51798145719175</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>21</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-26.47208362971466</v>
+      </c>
+      <c r="D20" t="n">
+        <v>68.4688696036681</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CG2N4N75_po_data.xlsx
+++ b/po_analysis_by_asin/B0CG2N4N75_po_data.xlsx
@@ -621,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -640,16 +640,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -658,12 +648,6 @@
       <c r="B2" t="n">
         <v>30</v>
       </c>
-      <c r="C2" t="n">
-        <v>-21.17095357737041</v>
-      </c>
-      <c r="D2" t="n">
-        <v>79.24745318814136</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -672,12 +656,6 @@
       <c r="B3" t="n">
         <v>29</v>
       </c>
-      <c r="C3" t="n">
-        <v>-20.90458672329303</v>
-      </c>
-      <c r="D3" t="n">
-        <v>79.26038669413713</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -686,12 +664,6 @@
       <c r="B4" t="n">
         <v>29</v>
       </c>
-      <c r="C4" t="n">
-        <v>-24.31556407880395</v>
-      </c>
-      <c r="D4" t="n">
-        <v>79.33126907661902</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -700,12 +672,6 @@
       <c r="B5" t="n">
         <v>29</v>
       </c>
-      <c r="C5" t="n">
-        <v>-17.92071012004774</v>
-      </c>
-      <c r="D5" t="n">
-        <v>79.42350628152657</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -714,12 +680,6 @@
       <c r="B6" t="n">
         <v>29</v>
       </c>
-      <c r="C6" t="n">
-        <v>-22.30695846073821</v>
-      </c>
-      <c r="D6" t="n">
-        <v>80.49275583813905</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -728,12 +688,6 @@
       <c r="B7" t="n">
         <v>26</v>
       </c>
-      <c r="C7" t="n">
-        <v>-27.17420085431709</v>
-      </c>
-      <c r="D7" t="n">
-        <v>78.47551924799652</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -742,12 +696,6 @@
       <c r="B8" t="n">
         <v>25</v>
       </c>
-      <c r="C8" t="n">
-        <v>-26.93585445475502</v>
-      </c>
-      <c r="D8" t="n">
-        <v>74.32996369780702</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -756,12 +704,6 @@
       <c r="B9" t="n">
         <v>24</v>
       </c>
-      <c r="C9" t="n">
-        <v>-24.7101536716342</v>
-      </c>
-      <c r="D9" t="n">
-        <v>72.312709001912</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -770,12 +712,6 @@
       <c r="B10" t="n">
         <v>24</v>
       </c>
-      <c r="C10" t="n">
-        <v>-26.12383435927012</v>
-      </c>
-      <c r="D10" t="n">
-        <v>75.14951714304704</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -784,12 +720,6 @@
       <c r="B11" t="n">
         <v>23</v>
       </c>
-      <c r="C11" t="n">
-        <v>-26.23397145102194</v>
-      </c>
-      <c r="D11" t="n">
-        <v>73.22837364741417</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -798,12 +728,6 @@
       <c r="B12" t="n">
         <v>23</v>
       </c>
-      <c r="C12" t="n">
-        <v>-24.26309504737358</v>
-      </c>
-      <c r="D12" t="n">
-        <v>69.64571894202454</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -812,12 +736,6 @@
       <c r="B13" t="n">
         <v>23</v>
       </c>
-      <c r="C13" t="n">
-        <v>-25.61251847829054</v>
-      </c>
-      <c r="D13" t="n">
-        <v>72.04175607367205</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -826,12 +744,6 @@
       <c r="B14" t="n">
         <v>23</v>
       </c>
-      <c r="C14" t="n">
-        <v>-25.22775566260771</v>
-      </c>
-      <c r="D14" t="n">
-        <v>75.40603122938431</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -840,12 +752,6 @@
       <c r="B15" t="n">
         <v>22</v>
       </c>
-      <c r="C15" t="n">
-        <v>-27.49507327827677</v>
-      </c>
-      <c r="D15" t="n">
-        <v>76.0062358819152</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -854,12 +760,6 @@
       <c r="B16" t="n">
         <v>22</v>
       </c>
-      <c r="C16" t="n">
-        <v>-33.51808904153412</v>
-      </c>
-      <c r="D16" t="n">
-        <v>71.7436645890994</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -868,12 +768,6 @@
       <c r="B17" t="n">
         <v>22</v>
       </c>
-      <c r="C17" t="n">
-        <v>-25.89715889829548</v>
-      </c>
-      <c r="D17" t="n">
-        <v>72.76894312571103</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -882,12 +776,6 @@
       <c r="B18" t="n">
         <v>22</v>
       </c>
-      <c r="C18" t="n">
-        <v>-32.96117064486228</v>
-      </c>
-      <c r="D18" t="n">
-        <v>68.98654070498118</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -896,12 +784,6 @@
       <c r="B19" t="n">
         <v>21</v>
       </c>
-      <c r="C19" t="n">
-        <v>-26.95855012402295</v>
-      </c>
-      <c r="D19" t="n">
-        <v>75.51798145719175</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -909,12 +791,6 @@
       </c>
       <c r="B20" t="n">
         <v>21</v>
-      </c>
-      <c r="C20" t="n">
-        <v>-26.47208362971466</v>
-      </c>
-      <c r="D20" t="n">
-        <v>68.4688696036681</v>
       </c>
     </row>
   </sheetData>
